--- a/Report/NS01_TestCase.xlsx
+++ b/Report/NS01_TestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyousuke\Desktop\Báo cáo kiem dinh\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLNS\QLNS\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8196" tabRatio="821" firstSheet="2" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8196" tabRatio="821" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="391">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -796,9 +796,6 @@
     <t>user can switch from "tin tức" tab to "cá nhân" tab</t>
   </si>
   <si>
-    <t>user can see book news when tap on book's image in "tin tức" tab</t>
-  </si>
-  <si>
     <t>user can scroll down to see other news about book in "tin tức" tab</t>
   </si>
   <si>
@@ -904,9 +901,6 @@
     <t>user can access "Danh mục sách" side tab when swipe from left to right in "bxh" tab</t>
   </si>
   <si>
-    <t>user can access "Danh mục sách" side tab when swipe from left to right in "tin tức" tab</t>
-  </si>
-  <si>
     <t>user can access "Danh mục sách" side tab when swipe from left to right in "cá nhân" tab</t>
   </si>
   <si>
@@ -1007,9 +1001,6 @@
   </si>
   <si>
     <t>[Module4-6]</t>
-  </si>
-  <si>
-    <t>[Module4-7]</t>
   </si>
   <si>
     <t>Test basic functions on "Cá nhân" tab</t>
@@ -1313,9 +1304,6 @@
 - Book detail screen is shown with info of book "Giá nào cũng yêu"</t>
   </si>
   <si>
-    <t>??????</t>
-  </si>
-  <si>
     <t>- "Thư viện" tab is shown
 - "Danh mục" side tab is shown with category</t>
   </si>
@@ -1447,22 +1435,6 @@
     <t>- "Thư viện" tab is shown
 - "Tin tức" tab is shown
 - "Thư viện" tab is shown</t>
-  </si>
-  <si>
-    <t>???????????</t>
-  </si>
-  <si>
-    <t>1. Start "Mito Ebook" app
-2. Tap on the fourth icon on the bottom navigation bar
-3. Swipe left to right from left edge of the screen</t>
-  </si>
-  <si>
-    <t>- "Thư viện" tab is shown
-- "Tin tức" tab is shown
-- "Danh mục" side tab is shown with category</t>
-  </si>
-  <si>
-    <t>questionable</t>
   </si>
   <si>
     <t>1. Start "Mito Ebook" app
@@ -1588,9 +1560,6 @@
 - "Dang ki thanh cong" message is shown at "Cá nhân" tab</t>
   </si>
   <si>
-    <t>???????</t>
-  </si>
-  <si>
     <t xml:space="preserve">user can switch from "đăng ký" tab to "đăng nhập" tab when
 tap on "đăng nhập" text </t>
   </si>
@@ -1638,9 +1607,6 @@
 - "Đăng ký/Đăng nhập" tab is shown
 - "Đăng nhập" tab is shown 
 - "Thanh cong" message is shown at "Cá nhân" tab</t>
-  </si>
-  <si>
-    <t>?????</t>
   </si>
   <si>
     <t>1. Start "Mito Ebook" app
@@ -1923,6 +1889,93 @@
   <si>
     <t>Oct 16th, 2017</t>
   </si>
+  <si>
+    <t>1. Start "Mito Ebook" app
+2. Tap on the fourth icon on the bottom navigation bar
+3. Tap on book image "Ảo ảnh của thanh xuân"</t>
+  </si>
+  <si>
+    <t>user can see book detail when tap on book's image in "tin tức" tab</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Tin tức" tab is shown
+- Book detail screen is shown with info of book "Ảo ảnh của thanh xuân"</t>
+  </si>
+  <si>
+    <t>1. Start "Mito Ebook" app
+2. Tap on the fourth icon on the bottom navigation bar
+3. Swipe from the bottom up</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Tin tức" tab is shown
+- More info paragraph are shown</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Tìm kiếm" tab is shown
+- only 3 line of text is shown under the text "Được tìm nhiều nhất"</t>
+  </si>
+  <si>
+    <t>1. Start "Mito Ebook" app
+2. Tap on the fifth icon on the bottom navigation bar
+3. Tap on "Đăng ký/Đăng nhập" textline 
+4. Tap on "Đăng ký" text
+5. Tap on "số điện thoại" line</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Cá nhân" tab is shown
+- "Đăng ký/Đăng nhập" tab is shown
+- "Đăng ký" tab is shown 
+- only number keyboard is shown</t>
+  </si>
+  <si>
+    <t>1. Start "Mito Ebook" app
+2. Tap on the fifth icon on the bottom navigation bar
+3. Tap on "Đăng ký/Đăng nhập" textline 
+4. Tap on "Đăng ký" text
+5. Tap on "mật khẩu" line and enter: "hotoan1996"</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Cá nhân" tab is shown
+- "Đăng ký/Đăng nhập" tab is shown
+- "Đăng ký" tab is shown 
+- all character turn to a line of dot</t>
+  </si>
+  <si>
+    <t>1. Start "Mito Ebook" app
+2. Tap on the fifth icon on the bottom navigation bar
+3. Tap on "Đăng ký/Đăng nhập" textline 
+4. Tap on "Đăng nhập" text
+5. Tap on "số điện thoại" line</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Cá nhân" tab is shown
+- "Đăng ký/Đăng nhập" tab is shown
+- "Đăng nhập" tab is shown 
+- only number keyboard is shown</t>
+  </si>
+  <si>
+    <t>1. Start "Mito Ebook" app
+2. Tap on the fifth icon on the bottom navigation bar
+3. Tap on "Đăng ký/Đăng nhập" textline 
+4. Tap on "Đăng nhập" text
+5. Tap on "mật khẩu" line and enter: "hotoan1996"</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Cá nhân" tab is shown
+- "Đăng ký/Đăng nhập" tab is shown
+- "Đăng nhập" tab is shown 
+- all character turn to a line of dot</t>
+  </si>
+  <si>
+    <t>Test type: black box testing, ad hoc testing</t>
+  </si>
 </sst>
 </file>
 
@@ -1931,7 +1984,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2075,12 +2128,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2839,7 +2886,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3110,14 +3157,8 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3340,12 +3381,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3395,6 +3430,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3446,9 +3484,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3914,13 +3949,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3931,11 +3966,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="206" t="s">
+      <c r="C4" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -3947,11 +3982,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -3960,14 +3995,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="208" t="s">
+      <c r="C6" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -3976,10 +4011,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="207"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="206"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -4154,13 +4189,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -4172,13 +4207,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -4190,11 +4225,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -4213,10 +4248,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -4241,11 +4276,11 @@
         <f>COUNTIF(F$9:F$962,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A9:A962)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -4289,134 +4324,134 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="79.2">
-      <c r="A9" s="130" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="159" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>337</v>
-      </c>
-      <c r="E9" s="123" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="177">
+      <c r="A9" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="157" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="175">
         <v>43024</v>
       </c>
-      <c r="H9" s="152" t="s">
-        <v>310</v>
+      <c r="H9" s="150" t="s">
+        <v>302</v>
       </c>
       <c r="I9" s="58"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="92.4">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="130" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="182" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H10" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="198">
+      <c r="A11" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="158" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="182" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H11" s="134" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="224.4">
+      <c r="A12" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="182" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H12" s="134" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="105.6">
+      <c r="A13" s="136" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="115" t="s">
-        <v>338</v>
-      </c>
-      <c r="C10" s="160" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" s="185" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" s="184" t="s">
-        <v>351</v>
-      </c>
-      <c r="F10" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="178">
+      <c r="B13" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="192" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="193" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="177">
         <v>43024</v>
       </c>
-      <c r="H10" s="136" t="s">
-        <v>310</v>
-      </c>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" ht="198">
-      <c r="A11" s="132" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="115" t="s">
-        <v>341</v>
-      </c>
-      <c r="C11" s="160" t="s">
-        <v>347</v>
-      </c>
-      <c r="D11" s="185" t="s">
-        <v>348</v>
-      </c>
-      <c r="E11" s="184" t="s">
-        <v>351</v>
-      </c>
-      <c r="F11" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="178">
-        <v>43024</v>
-      </c>
-      <c r="H11" s="136" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="224.4">
-      <c r="A12" s="132" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="115" t="s">
-        <v>342</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>350</v>
-      </c>
-      <c r="D12" s="185" t="s">
-        <v>349</v>
-      </c>
-      <c r="E12" s="184" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="178">
-        <v>43024</v>
-      </c>
-      <c r="H12" s="136" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="105.6">
-      <c r="A13" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>354</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" s="197" t="s">
-        <v>353</v>
-      </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="179">
-        <v>43024</v>
-      </c>
-      <c r="H13" s="150"/>
+      <c r="H13" s="148"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>
@@ -4482,13 +4517,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -4500,13 +4535,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -4518,11 +4553,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -4541,10 +4576,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -4569,11 +4604,11 @@
         <f>COUNTIF(F$9:F$966,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A9:A966)</f>
         <v>9</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -4617,202 +4652,202 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:10" ht="52.8">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="182" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="172" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="170" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H9" s="134"/>
+    </row>
+    <row r="10" spans="1:10" ht="52.8">
+      <c r="A10" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="182" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H10" s="134"/>
+    </row>
+    <row r="11" spans="1:10" ht="52.8">
+      <c r="A11" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="182" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="158" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H11" s="134"/>
+    </row>
+    <row r="12" spans="1:10" ht="52.8">
+      <c r="A12" s="130" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="184" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="174" t="s">
-        <v>355</v>
-      </c>
-      <c r="D9" s="172" t="s">
-        <v>356</v>
-      </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="178">
+      <c r="B12" s="182" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="176">
         <v>43024</v>
       </c>
-      <c r="H9" s="136"/>
-    </row>
-    <row r="10" spans="1:10" ht="52.8">
-      <c r="A10" s="132" t="s">
+      <c r="H12" s="147"/>
+    </row>
+    <row r="13" spans="1:10" ht="66">
+      <c r="A13" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="184" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="160" t="s">
-        <v>357</v>
-      </c>
-      <c r="D10" s="185" t="s">
-        <v>356</v>
-      </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="178">
+      <c r="B13" s="182" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="158" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="176">
         <v>43024</v>
       </c>
-      <c r="H10" s="136"/>
-    </row>
-    <row r="11" spans="1:10" ht="52.8">
-      <c r="A11" s="132" t="s">
+      <c r="H13" s="147"/>
+    </row>
+    <row r="14" spans="1:10" ht="52.8">
+      <c r="A14" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="184" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="160" t="s">
-        <v>358</v>
-      </c>
-      <c r="D11" s="185" t="s">
-        <v>356</v>
-      </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="178">
+      <c r="B14" s="182" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="158" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="176">
         <v>43024</v>
       </c>
-      <c r="H11" s="136"/>
-    </row>
-    <row r="12" spans="1:10" ht="52.8">
-      <c r="A12" s="132" t="s">
+      <c r="H14" s="147"/>
+    </row>
+    <row r="15" spans="1:10" ht="66">
+      <c r="A15" s="130" t="s">
         <v>212</v>
       </c>
-      <c r="B12" s="184" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>359</v>
-      </c>
-      <c r="D12" s="185" t="s">
-        <v>356</v>
-      </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="178">
+      <c r="B15" s="182" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="176">
         <v>43024</v>
       </c>
-      <c r="H12" s="149"/>
-    </row>
-    <row r="13" spans="1:10" ht="66">
-      <c r="A13" s="132" t="s">
+      <c r="H15" s="147"/>
+    </row>
+    <row r="16" spans="1:10" ht="52.8">
+      <c r="A16" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="B13" s="184" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="160" t="s">
-        <v>360</v>
-      </c>
-      <c r="D13" s="185" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="178">
+      <c r="B16" s="182" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="176">
         <v>43024</v>
       </c>
-      <c r="H13" s="149"/>
-    </row>
-    <row r="14" spans="1:10" ht="52.8">
-      <c r="A14" s="132" t="s">
+      <c r="H16" s="147"/>
+    </row>
+    <row r="17" spans="1:8" ht="66">
+      <c r="A17" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="184" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="160" t="s">
-        <v>361</v>
-      </c>
-      <c r="D14" s="185" t="s">
-        <v>356</v>
-      </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="178">
+      <c r="B17" s="196" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="192" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="193" t="s">
+        <v>346</v>
+      </c>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="177">
         <v>43024</v>
       </c>
-      <c r="H14" s="149"/>
-    </row>
-    <row r="15" spans="1:10" ht="66">
-      <c r="A15" s="132" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="184" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="160" t="s">
-        <v>362</v>
-      </c>
-      <c r="D15" s="185" t="s">
-        <v>356</v>
-      </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="178">
-        <v>43024</v>
-      </c>
-      <c r="H15" s="149"/>
-    </row>
-    <row r="16" spans="1:10" ht="52.8">
-      <c r="A16" s="132" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="184" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="160" t="s">
-        <v>363</v>
-      </c>
-      <c r="D16" s="185" t="s">
-        <v>356</v>
-      </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="178">
-        <v>43024</v>
-      </c>
-      <c r="H16" s="149"/>
-    </row>
-    <row r="17" spans="1:8" ht="66">
-      <c r="A17" s="138" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="200" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="196" t="s">
-        <v>364</v>
-      </c>
-      <c r="D17" s="197" t="s">
-        <v>356</v>
-      </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="179">
-        <v>43024</v>
-      </c>
-      <c r="H17" s="150"/>
+      <c r="H17" s="148"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>
@@ -4878,13 +4913,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -4896,13 +4931,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -4914,11 +4949,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -4937,10 +4972,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -4965,11 +5000,11 @@
         <f>COUNTIF(F$9:F$962,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A9:A962)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -5013,118 +5048,118 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="39.6">
-      <c r="A9" s="130" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="160" t="s">
-        <v>365</v>
-      </c>
-      <c r="D9" s="185" t="s">
-        <v>366</v>
-      </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="151">
+      <c r="A9" s="128" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="183" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="121"/>
+      <c r="F9" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="149">
         <v>43024</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="58"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="39.6">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="130" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="F10" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H10" s="134"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="39.6">
+      <c r="A11" s="130" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="158" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H11" s="134"/>
+    </row>
+    <row r="12" spans="1:11" ht="52.8">
+      <c r="A12" s="130" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>359</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H12" s="134"/>
+    </row>
+    <row r="13" spans="1:11" ht="52.8">
+      <c r="A13" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="116" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="160" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="185" t="s">
-        <v>367</v>
-      </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="153">
+      <c r="B13" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="192" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="193" t="s">
+        <v>361</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="152">
         <v>43024</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" ht="39.6">
-      <c r="A11" s="132" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="160" t="s">
-        <v>365</v>
-      </c>
-      <c r="D11" s="185" t="s">
-        <v>368</v>
-      </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H11" s="136"/>
-    </row>
-    <row r="12" spans="1:11" ht="52.8">
-      <c r="A12" s="132" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="116" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>365</v>
-      </c>
-      <c r="D12" s="185" t="s">
-        <v>369</v>
-      </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H12" s="136"/>
-    </row>
-    <row r="13" spans="1:11" ht="52.8">
-      <c r="A13" s="138" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="140" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>370</v>
-      </c>
-      <c r="D13" s="197" t="s">
-        <v>371</v>
-      </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="154">
-        <v>43024</v>
-      </c>
-      <c r="H13" s="141"/>
+      <c r="H13" s="139"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>
@@ -5190,13 +5225,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -5208,13 +5243,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -5226,11 +5261,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -5249,10 +5284,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -5277,11 +5312,11 @@
         <f>COUNTIF(F$9:F$952,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A9:A952)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -5325,49 +5360,49 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:10" ht="79.2">
-      <c r="A9" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="198" t="s">
-        <v>374</v>
-      </c>
-      <c r="C9" s="159" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="201" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="151">
+      <c r="A9" s="128" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="194" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="157" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="121"/>
+      <c r="F9" s="197" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="149">
         <v>43024</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="158.4">
-      <c r="A10" s="138" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="140" t="s">
-        <v>375</v>
-      </c>
-      <c r="C10" s="202" t="s">
-        <v>376</v>
-      </c>
-      <c r="D10" s="175" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" s="189"/>
-      <c r="F10" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="154">
+      <c r="A10" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="198" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="173" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="185"/>
+      <c r="F10" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="152">
         <v>43024</v>
       </c>
-      <c r="H10" s="145"/>
+      <c r="H10" s="143"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>
@@ -5433,13 +5468,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -5451,13 +5486,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -5469,11 +5504,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -5492,10 +5527,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -5520,11 +5555,11 @@
         <f>COUNTIF(F$10:F$953,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A10:A953)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -5568,75 +5603,75 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="39.6">
-      <c r="A9" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="123" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="159" t="s">
-        <v>382</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>381</v>
-      </c>
-      <c r="E9" s="195"/>
-      <c r="F9" s="123" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="151">
+      <c r="A9" s="128" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="121" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="157" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" s="191"/>
+      <c r="F9" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="149">
         <v>43024</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="150"/>
     </row>
     <row r="10" spans="1:11" ht="26.4">
-      <c r="A10" s="132" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="116" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" s="133" t="s">
-        <v>383</v>
-      </c>
-      <c r="D10" s="185" t="s">
-        <v>384</v>
-      </c>
-      <c r="E10" s="168" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="203" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="153">
+      <c r="A10" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="114" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="166" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="199" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="151">
         <v>43024</v>
       </c>
-      <c r="H10" s="136"/>
+      <c r="H10" s="134"/>
       <c r="I10" s="58"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="79.2">
-      <c r="A11" s="138" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="140" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="196" t="s">
-        <v>379</v>
-      </c>
-      <c r="D11" s="197" t="s">
-        <v>380</v>
-      </c>
-      <c r="E11" s="169"/>
-      <c r="F11" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="154">
+      <c r="A11" s="136" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="138" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="192" t="s">
+        <v>369</v>
+      </c>
+      <c r="D11" s="193" t="s">
+        <v>370</v>
+      </c>
+      <c r="E11" s="167"/>
+      <c r="F11" s="200" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="152">
         <v>43024</v>
       </c>
-      <c r="H11" s="141"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="59"/>
     </row>
   </sheetData>
@@ -5669,7 +5704,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5685,15 +5720,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="63"/>
@@ -5709,69 +5744,71 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="211" t="str">
+      <c r="C3" s="208" t="str">
         <f>Cover!C4</f>
         <v>Quản lý Nhà Sách</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="220" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="220"/>
-      <c r="G3" s="221" t="str">
+      <c r="F3" s="217"/>
+      <c r="G3" s="218" t="str">
         <f>Cover!G4</f>
         <v>Vũ Hoàng Minh, Trương Thuận Toàn</v>
       </c>
-      <c r="H3" s="222"/>
+      <c r="H3" s="219"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="211" t="str">
+      <c r="C4" s="208" t="str">
         <f>Cover!C5</f>
         <v>NS01</v>
       </c>
-      <c r="D4" s="211"/>
-      <c r="E4" s="220" t="s">
+      <c r="D4" s="208"/>
+      <c r="E4" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="220"/>
-      <c r="G4" s="221" t="str">
+      <c r="F4" s="217"/>
+      <c r="G4" s="218" t="str">
         <f>Cover!G5</f>
         <v>Vũ Hoàng Minh, Trương Thuận Toàn</v>
       </c>
-      <c r="H4" s="222"/>
+      <c r="H4" s="219"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1">
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211" t="str">
+      <c r="C5" s="208" t="str">
         <f>Cover!C6</f>
         <v>NS01_TestCase.xlsx</v>
       </c>
-      <c r="D5" s="211"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="221" t="s">
-        <v>385</v>
-      </c>
-      <c r="H5" s="222"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="218" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" s="219"/>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
       <c r="A6" s="63"/>
       <c r="B6" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
+      <c r="C6" s="215" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="63"/>
@@ -5828,7 +5865,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="76"/>
-      <c r="B11" s="223">
+      <c r="B11" s="201">
         <v>1</v>
       </c>
       <c r="C11" s="77" t="str">
@@ -5858,7 +5895,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="76"/>
-      <c r="B12" s="223">
+      <c r="B12" s="201">
         <v>2</v>
       </c>
       <c r="C12" s="77" t="str">
@@ -5867,7 +5904,7 @@
       </c>
       <c r="D12" s="78">
         <f>Module2!A6</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="78">
         <f>Module2!B6</f>
@@ -5875,7 +5912,7 @@
       </c>
       <c r="F12" s="78">
         <f>Module2!C6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="79">
         <f>Module2!D6</f>
@@ -5888,7 +5925,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="76"/>
-      <c r="B13" s="223">
+      <c r="B13" s="201">
         <v>3</v>
       </c>
       <c r="C13" s="77" t="s">
@@ -5917,7 +5954,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="76"/>
-      <c r="B14" s="223">
+      <c r="B14" s="201">
         <v>4</v>
       </c>
       <c r="C14" s="77" t="s">
@@ -5925,7 +5962,7 @@
       </c>
       <c r="D14" s="78">
         <f>Module4!A6</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="78">
         <f>Module4!B6</f>
@@ -5933,7 +5970,7 @@
       </c>
       <c r="F14" s="78">
         <f>Module4!C6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="78">
         <f>Module4!D6</f>
@@ -5941,12 +5978,12 @@
       </c>
       <c r="H14" s="80">
         <f>Module4!E6</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="76"/>
-      <c r="B15" s="223">
+      <c r="B15" s="201">
         <v>5</v>
       </c>
       <c r="C15" s="77" t="s">
@@ -5975,7 +6012,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="76"/>
-      <c r="B16" s="223">
+      <c r="B16" s="201">
         <v>6</v>
       </c>
       <c r="C16" s="77" t="s">
@@ -5983,7 +6020,7 @@
       </c>
       <c r="D16" s="78">
         <f>Module6!A6</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="78">
         <f>Module6!B6</f>
@@ -5991,7 +6028,7 @@
       </c>
       <c r="F16" s="78">
         <f>Module6!C6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="78">
         <f>Module6!D6</f>
@@ -6004,7 +6041,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="76"/>
-      <c r="B17" s="223">
+      <c r="B17" s="201">
         <v>7</v>
       </c>
       <c r="C17" s="77" t="s">
@@ -6012,7 +6049,7 @@
       </c>
       <c r="D17" s="78">
         <f>Module7!A6</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="78">
         <f>Module7!B6</f>
@@ -6020,7 +6057,7 @@
       </c>
       <c r="F17" s="78">
         <f>Module7!C6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="78">
         <f>Module7!D6</f>
@@ -6033,7 +6070,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="76"/>
-      <c r="B18" s="223">
+      <c r="B18" s="201">
         <v>8</v>
       </c>
       <c r="C18" s="77" t="s">
@@ -6062,7 +6099,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="76"/>
-      <c r="B19" s="223">
+      <c r="B19" s="201">
         <v>9</v>
       </c>
       <c r="C19" s="77" t="s">
@@ -6091,7 +6128,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="76"/>
-      <c r="B20" s="223">
+      <c r="B20" s="201">
         <v>10</v>
       </c>
       <c r="C20" s="77" t="s">
@@ -6120,7 +6157,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="76"/>
-      <c r="B21" s="223">
+      <c r="B21" s="201">
         <v>11</v>
       </c>
       <c r="C21" s="77" t="s">
@@ -6149,7 +6186,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="76"/>
-      <c r="B22" s="223">
+      <c r="B22" s="201">
         <v>12</v>
       </c>
       <c r="C22" s="77" t="s">
@@ -6184,7 +6221,7 @@
       </c>
       <c r="D23" s="83">
         <f>SUM(D9:D22)</f>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E23" s="83">
         <f>SUM(E9:E22)</f>
@@ -6192,7 +6229,7 @@
       </c>
       <c r="F23" s="83">
         <f>SUM(F9:F22)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G23" s="83">
         <f>SUM(G9:G22)</f>
@@ -6200,7 +6237,7 @@
       </c>
       <c r="H23" s="84">
         <f>SUM(H9:H22)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6222,7 +6259,7 @@
       <c r="D25" s="69"/>
       <c r="E25" s="89">
         <f>(D23+E23)*100/(H23-G23)</f>
-        <v>90.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="F25" s="69" t="s">
         <v>47</v>
@@ -6239,7 +6276,7 @@
       <c r="D26" s="69"/>
       <c r="E26" s="89">
         <f>D23*100/(H23-G23)</f>
-        <v>90.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="F26" s="69" t="s">
         <v>47</v>
@@ -6311,7 +6348,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="129" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="127" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.21875" style="25" customWidth="1"/>
     <col min="4" max="4" width="17.109375" style="25" customWidth="1"/>
     <col min="5" max="5" width="78.77734375" style="25" customWidth="1"/>
@@ -6320,97 +6357,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="24.6">
-      <c r="B1" s="127"/>
+      <c r="B1" s="125"/>
       <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B2" s="127"/>
+      <c r="B2" s="125"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211" t="str">
+      <c r="C3" s="207"/>
+      <c r="D3" s="208" t="str">
         <f>Cover!C4</f>
         <v>Quản lý Nhà Sách</v>
       </c>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211" t="str">
+      <c r="C4" s="207"/>
+      <c r="D4" s="208" t="str">
         <f>Cover!C5</f>
         <v>NS01</v>
       </c>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
     </row>
     <row r="5" spans="2:6" s="29" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="212"/>
-      <c r="D5" s="213" t="s">
+      <c r="C5" s="209"/>
+      <c r="D5" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="128"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:6" s="31" customFormat="1">
-      <c r="B7" s="127"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
     </row>
     <row r="8" spans="2:6" s="33" customFormat="1" ht="21" customHeight="1">
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="147" t="s">
+      <c r="D8" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="147" t="s">
+      <c r="E8" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="146" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="120">
+      <c r="B9" s="118">
         <v>1</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="118" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="119" t="s">
+      <c r="E9" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="117" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6421,13 +6458,13 @@
       <c r="C10" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="108" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6438,13 +6475,13 @@
       <c r="C11" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="108" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="111" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6455,13 +6492,13 @@
       <c r="C12" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="108" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="111" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6469,16 +6506,16 @@
       <c r="B13" s="102">
         <v>5</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="108" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="111" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6486,16 +6523,16 @@
       <c r="B14" s="102">
         <v>6</v>
       </c>
-      <c r="C14" s="122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="110" t="s">
+      <c r="C14" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="108" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="111" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6503,33 +6540,33 @@
       <c r="B15" s="102">
         <v>7</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="108" t="s">
         <v>66</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="113" t="s">
-        <v>116</v>
+        <v>184</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="102">
         <v>8</v>
       </c>
-      <c r="C16" s="122" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="110" t="s">
+      <c r="C16" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="108" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="111" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6537,16 +6574,16 @@
       <c r="B17" s="102">
         <v>9</v>
       </c>
-      <c r="C17" s="122" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="110" t="s">
+      <c r="C17" s="120" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="108" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="111" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6554,48 +6591,48 @@
       <c r="B18" s="102">
         <v>10</v>
       </c>
-      <c r="C18" s="122" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="110" t="s">
+      <c r="C18" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="108" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="104" t="s">
-        <v>207</v>
-      </c>
-      <c r="F18" s="113"/>
+        <v>204</v>
+      </c>
+      <c r="F18" s="111"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="102">
         <v>11</v>
       </c>
-      <c r="C19" s="122" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="110" t="s">
+      <c r="C19" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="108" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="155" t="s">
-        <v>128</v>
+        <v>205</v>
+      </c>
+      <c r="F19" s="153" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="105">
         <v>12</v>
       </c>
-      <c r="C20" s="156" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="111" t="s">
+      <c r="C20" s="154" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="156" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="157" t="s">
+      <c r="E20" s="154" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="155" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6664,13 +6701,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -6682,13 +6719,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -6700,11 +6737,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -6723,10 +6760,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -6751,11 +6788,11 @@
         <f>COUNTIF(F$9:F$993,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A9:A993)</f>
         <v>8</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -6799,184 +6836,184 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:10" s="60" customFormat="1" ht="39.6">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="156" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="157"/>
+      <c r="F9" s="164" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="178">
+        <v>43024</v>
+      </c>
+      <c r="H9" s="129"/>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" ht="39.6">
+      <c r="A10" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="168" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="169" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="158"/>
+      <c r="F10" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="179">
+        <v>43024</v>
+      </c>
+      <c r="H10" s="133"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:10" ht="39.6">
+      <c r="A11" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="114" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="158" t="s">
+      <c r="B11" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="160" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="131"/>
+      <c r="F11" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="179">
+        <v>43024</v>
+      </c>
+      <c r="H11" s="133"/>
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" ht="39.6">
+      <c r="A12" s="130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D12" s="160" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="159"/>
-      <c r="F9" s="166" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="180">
+      <c r="E12" s="131"/>
+      <c r="F12" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="179">
         <v>43024</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="59"/>
-    </row>
-    <row r="10" spans="1:10" ht="39.6">
-      <c r="A10" s="132" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="170" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="171" t="s">
+      <c r="H12" s="134"/>
+      <c r="I12" s="61"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.4">
+      <c r="A13" s="130" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="161" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="160" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="135"/>
+      <c r="F13" s="166" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="179">
+        <v>43024</v>
+      </c>
+      <c r="H13" s="134"/>
+    </row>
+    <row r="14" spans="1:10" ht="26.4">
+      <c r="A14" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="161" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="160" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="160"/>
-      <c r="F10" s="167" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="181">
+      <c r="E14" s="135"/>
+      <c r="F14" s="166" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="179">
         <v>43024</v>
       </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="1:10" ht="39.6">
-      <c r="A11" s="132" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="124" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="133" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="162" t="s">
+      <c r="H14" s="134"/>
+    </row>
+    <row r="15" spans="1:10" ht="39.6">
+      <c r="A15" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="161" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="160" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="167" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="181">
+      <c r="E15" s="135"/>
+      <c r="F15" s="166" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="179">
         <v>43024</v>
       </c>
-      <c r="H11" s="135"/>
-      <c r="I11" s="59"/>
-    </row>
-    <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="132" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="124" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="133" t="s">
-        <v>248</v>
-      </c>
-      <c r="D12" s="162" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="167" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="181">
+      <c r="H15" s="134"/>
+    </row>
+    <row r="16" spans="1:10" ht="39.6">
+      <c r="A16" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="163" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="137"/>
+      <c r="F16" s="167" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="180">
         <v>43024</v>
       </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="61"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.4">
-      <c r="A13" s="132" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="163" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="162" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="168" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="181">
-        <v>43024</v>
-      </c>
-      <c r="H13" s="136"/>
-    </row>
-    <row r="14" spans="1:10" ht="26.4">
-      <c r="A14" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="124" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="163" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="162" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="168" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="181">
-        <v>43024</v>
-      </c>
-      <c r="H14" s="136"/>
-    </row>
-    <row r="15" spans="1:10" ht="39.6">
-      <c r="A15" s="132" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="163" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="162" t="s">
-        <v>255</v>
-      </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="168" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="181">
-        <v>43024</v>
-      </c>
-      <c r="H15" s="136"/>
-    </row>
-    <row r="16" spans="1:10" ht="39.6">
-      <c r="A16" s="138" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="164" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="165" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="169" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="182">
-        <v>43024</v>
-      </c>
-      <c r="H16" s="141"/>
+      <c r="H16" s="139"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H12"/>
@@ -7009,8 +7046,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:D12"/>
+      <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -7043,13 +7080,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -7061,13 +7098,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -7079,11 +7116,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -7102,10 +7139,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -7116,7 +7153,7 @@
     <row r="6" spans="1:11" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="62">
         <f>COUNTIF(F9:F975,"Pass")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="53">
         <f>COUNTIF(F9:F975,"Fail")</f>
@@ -7124,17 +7161,17 @@
       </c>
       <c r="C6" s="53">
         <f>E6-D6-B6-A6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="54">
         <f>COUNTIF(F$9:F$975,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A9:A975)</f>
         <v>8</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -7178,182 +7215,184 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="79.2">
-      <c r="A9" s="130" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="114" t="s">
+      <c r="A9" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="158" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>256</v>
-      </c>
-      <c r="E9" s="142"/>
-      <c r="F9" s="176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="177">
+      <c r="C9" s="156" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="140"/>
+      <c r="F9" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="175">
         <v>43024</v>
       </c>
-      <c r="H9" s="143"/>
+      <c r="H9" s="141"/>
       <c r="I9" s="58"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="79.2">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="135"/>
+      <c r="F10" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H10" s="142"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="79.2">
+      <c r="A11" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="172" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="170" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="135"/>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H11" s="142"/>
+    </row>
+    <row r="12" spans="1:11" ht="79.2">
+      <c r="A12" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="124" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="174" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="172" t="s">
+      <c r="B12" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="172" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="178">
+      <c r="D12" s="170" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="135"/>
+      <c r="F12" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="176">
         <v>43024</v>
       </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" ht="79.2">
-      <c r="A11" s="132" t="s">
+      <c r="H12" s="142"/>
+    </row>
+    <row r="13" spans="1:11" ht="79.2">
+      <c r="A13" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="174" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="172" t="s">
+      <c r="B13" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="172" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="178">
+      <c r="D13" s="170" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="135"/>
+      <c r="F13" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="176">
         <v>43024</v>
       </c>
-      <c r="H11" s="144"/>
-    </row>
-    <row r="12" spans="1:11" ht="79.2">
-      <c r="A12" s="132" t="s">
+      <c r="H13" s="142"/>
+    </row>
+    <row r="14" spans="1:11" ht="105.6">
+      <c r="A14" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="174" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="172" t="s">
+      <c r="B14" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="172" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="178">
+      <c r="D14" s="170" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="135"/>
+      <c r="F14" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="176">
         <v>43024</v>
       </c>
-      <c r="H12" s="144"/>
-    </row>
-    <row r="13" spans="1:11" ht="79.2">
-      <c r="A13" s="132" t="s">
+      <c r="H14" s="142"/>
+    </row>
+    <row r="15" spans="1:11" ht="79.2">
+      <c r="A15" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="174" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" s="172" t="s">
-        <v>262</v>
-      </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="178">
+      <c r="B15" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="172" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="170" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="135"/>
+      <c r="F15" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="176">
         <v>43024</v>
       </c>
-      <c r="H13" s="144"/>
-    </row>
-    <row r="14" spans="1:11" ht="105.6">
-      <c r="A14" s="132" t="s">
+      <c r="H15" s="142"/>
+    </row>
+    <row r="16" spans="1:11" ht="66">
+      <c r="A16" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="174" t="s">
+      <c r="B16" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="173" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="172" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="178">
+      <c r="E16" s="137"/>
+      <c r="F16" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="177">
         <v>43024</v>
       </c>
-      <c r="H14" s="144"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="132" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="124" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="174" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="178">
-        <v>43024</v>
-      </c>
-      <c r="H15" s="144"/>
-    </row>
-    <row r="16" spans="1:11" ht="66">
-      <c r="A16" s="138" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="164" t="s">
-        <v>276</v>
-      </c>
-      <c r="D16" s="175" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="179">
-        <v>43024</v>
-      </c>
-      <c r="H16" s="145"/>
+      <c r="H16" s="143"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>
@@ -7420,13 +7459,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -7438,13 +7477,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -7456,11 +7495,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -7479,10 +7518,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -7507,11 +7546,11 @@
         <f>COUNTIF(F$9:F$974,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A9:A974)</f>
         <v>7</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -7555,162 +7594,162 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="79.2">
-      <c r="A9" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="114" t="s">
+      <c r="A9" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="183" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="177">
+      <c r="C9" s="181" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="121"/>
+      <c r="F9" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="175">
         <v>43024</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="58"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="79.2">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="F10" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H10" s="134"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="79.2">
+      <c r="A11" s="130" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="182" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H11" s="134"/>
+    </row>
+    <row r="12" spans="1:11" ht="79.2">
+      <c r="A12" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="184" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="185" t="s">
+      <c r="B12" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="182" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H12" s="134"/>
+    </row>
+    <row r="13" spans="1:11" ht="66">
+      <c r="A13" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="122" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="182" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="183" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H13" s="134"/>
+    </row>
+    <row r="14" spans="1:11" ht="79.2">
+      <c r="A14" s="130" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="182" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="178">
+      <c r="E14" s="114"/>
+      <c r="F14" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="176">
         <v>43024</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" ht="79.2">
-      <c r="A11" s="132" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="184" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="185" t="s">
+      <c r="H14" s="134"/>
+    </row>
+    <row r="15" spans="1:11" ht="66">
+      <c r="A15" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="162" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="173" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="178">
+      <c r="E15" s="138"/>
+      <c r="F15" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="177">
         <v>43024</v>
       </c>
-      <c r="H11" s="136"/>
-    </row>
-    <row r="12" spans="1:11" ht="79.2">
-      <c r="A12" s="132" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="124" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="184" t="s">
-        <v>286</v>
-      </c>
-      <c r="D12" s="185" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="178">
-        <v>43024</v>
-      </c>
-      <c r="H12" s="136"/>
-    </row>
-    <row r="13" spans="1:11" ht="66">
-      <c r="A13" s="132" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="124" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="184" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="185" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="178">
-        <v>43024</v>
-      </c>
-      <c r="H13" s="136"/>
-    </row>
-    <row r="14" spans="1:11" ht="79.2">
-      <c r="A14" s="132" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="115" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="184" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="185" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="178">
-        <v>43024</v>
-      </c>
-      <c r="H14" s="136"/>
-    </row>
-    <row r="15" spans="1:11" ht="66">
-      <c r="A15" s="138" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="112" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="164" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="175" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="179">
-        <v>43024</v>
-      </c>
-      <c r="H15" s="141"/>
+      <c r="H15" s="139"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>
@@ -7739,11 +7778,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -7776,13 +7815,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -7794,13 +7833,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -7812,11 +7851,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -7835,10 +7874,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -7848,26 +7887,26 @@
     </row>
     <row r="6" spans="1:11" s="42" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="62">
-        <f>COUNTIF(F9:F974,"Pass")</f>
-        <v>5</v>
+        <f>COUNTIF(F9:F973,"Pass")</f>
+        <v>6</v>
       </c>
       <c r="B6" s="53">
-        <f>COUNTIF(F9:F974,"Fail")</f>
+        <f>COUNTIF(F9:F973,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="53">
         <f>E6-D6-B6-A6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="54">
-        <f>COUNTIF(F$9:F$974,"N/A")</f>
+        <f>COUNTIF(F$9:F$973,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
-        <f>COUNTA(A9:A974)</f>
-        <v>7</v>
-      </c>
-      <c r="F6" s="214"/>
+      <c r="E6" s="211">
+        <f>COUNTA(A9:A973)</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -7911,156 +7950,140 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="79.2">
-      <c r="A9" s="130" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="109" t="s">
+      <c r="A9" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="183" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="185" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="177">
+      <c r="C9" s="181" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="183" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="121"/>
+      <c r="F9" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="175">
         <v>43024</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="58"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="79.2">
-      <c r="A10" s="132" t="s">
-        <v>170</v>
+      <c r="A10" s="130" t="s">
+        <v>168</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="160" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" s="185" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="178">
+      <c r="C10" s="158" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="F10" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="176">
         <v>43024</v>
       </c>
-      <c r="H10" s="136"/>
+      <c r="H10" s="134"/>
       <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="79.2">
-      <c r="A11" s="132" t="s">
-        <v>171</v>
+      <c r="A11" s="130" t="s">
+        <v>169</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="160" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="185" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="178">
+      <c r="C11" s="158" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="176">
         <v>43024</v>
       </c>
-      <c r="H11" s="136"/>
+      <c r="H11" s="134"/>
     </row>
     <row r="12" spans="1:11" ht="79.2">
-      <c r="A12" s="132" t="s">
-        <v>172</v>
+      <c r="A12" s="130" t="s">
+        <v>170</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="160" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="185" t="s">
+      <c r="C12" s="158" t="s">
         <v>287</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="178">
+      <c r="D12" s="183" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="176">
         <v>43024</v>
       </c>
-      <c r="H12" s="136"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="132" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="107" t="s">
+      <c r="H12" s="134"/>
+    </row>
+    <row r="13" spans="1:11" ht="79.2">
+      <c r="A13" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="158" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="183" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="176">
+        <v>43024</v>
+      </c>
+      <c r="H13" s="134"/>
+    </row>
+    <row r="14" spans="1:11" ht="52.8">
+      <c r="A14" s="136" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="184" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="178">
+      <c r="C14" s="192" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="193" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="177">
         <v>43024</v>
       </c>
-      <c r="H13" s="136"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="132" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="186" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14" s="186"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="178">
-        <v>43024</v>
-      </c>
-      <c r="H14" s="136"/>
-    </row>
-    <row r="15" spans="1:11" ht="66">
-      <c r="A15" s="138" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="164" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="175" t="s">
-        <v>295</v>
-      </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="179">
-        <v>43024</v>
-      </c>
-      <c r="H15" s="187" t="s">
-        <v>296</v>
-      </c>
+      <c r="H14" s="139"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>
@@ -8072,7 +8095,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F120">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F119">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8126,13 +8149,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -8144,13 +8167,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -8162,11 +8185,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -8185,10 +8208,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -8213,11 +8236,11 @@
         <f>COUNTIF(F$9:F$975,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A9:A975)</f>
         <v>12</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -8261,282 +8284,282 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="79.2">
-      <c r="A9" s="130" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="160" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="185" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="151">
+      <c r="A9" s="128" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="183" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="121"/>
+      <c r="F9" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="149">
         <v>43024</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="58"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="79.2">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="130" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="F10" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H10" s="134"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="79.2">
+      <c r="A11" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="158" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H11" s="134"/>
+    </row>
+    <row r="12" spans="1:11" ht="79.2">
+      <c r="A12" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H12" s="134"/>
+    </row>
+    <row r="13" spans="1:11" ht="66">
+      <c r="A13" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="124" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="160" t="s">
+      <c r="B13" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="158" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="183" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H13" s="134"/>
+    </row>
+    <row r="14" spans="1:11" ht="66">
+      <c r="A14" s="130" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="158" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="185" t="s">
+      <c r="D14" s="183" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="153">
+      <c r="E14" s="114"/>
+      <c r="F14" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="151">
         <v>43024</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" ht="79.2">
-      <c r="A11" s="132" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="160" t="s">
+      <c r="H14" s="134"/>
+    </row>
+    <row r="15" spans="1:11" ht="52.8">
+      <c r="A15" s="130" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="183" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="185" t="s">
+      <c r="E15" s="166"/>
+      <c r="F15" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H15" s="134"/>
+    </row>
+    <row r="16" spans="1:11" ht="66">
+      <c r="A16" s="130" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="183" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="166" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="184" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H16" s="134" t="s">
         <v>302</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="153">
+    </row>
+    <row r="17" spans="1:8" ht="26.4">
+      <c r="A17" s="130" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="186" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="171" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="166" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="184" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="151">
         <v>43024</v>
       </c>
-      <c r="H11" s="136"/>
-    </row>
-    <row r="12" spans="1:11" ht="79.2">
-      <c r="A12" s="132" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="124" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>303</v>
-      </c>
-      <c r="D12" s="185" t="s">
-        <v>304</v>
-      </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="153">
+      <c r="H17" s="134"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.4">
+      <c r="A18" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="113" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="188" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" s="189" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="184" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="151">
         <v>43024</v>
       </c>
-      <c r="H12" s="136"/>
-    </row>
-    <row r="13" spans="1:11" ht="66">
-      <c r="A13" s="132" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="160" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" s="185" t="s">
-        <v>306</v>
-      </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="153">
+      <c r="H18" s="190"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.4">
+      <c r="A19" s="130" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>333</v>
+      </c>
+      <c r="D19" s="188" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="189" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="151">
         <v>43024</v>
       </c>
-      <c r="H13" s="136"/>
-    </row>
-    <row r="14" spans="1:11" ht="66">
-      <c r="A14" s="132" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="160" t="s">
+      <c r="H19" s="190"/>
+    </row>
+    <row r="20" spans="1:8" ht="66">
+      <c r="A20" s="136" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="162" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="185" t="s">
+      <c r="D20" s="173" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="153">
+      <c r="E20" s="167"/>
+      <c r="F20" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="152">
         <v>43024</v>
       </c>
-      <c r="H14" s="136"/>
-    </row>
-    <row r="15" spans="1:11" ht="52.8">
-      <c r="A15" s="132" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="160" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" s="185" t="s">
-        <v>309</v>
-      </c>
-      <c r="E15" s="168"/>
-      <c r="F15" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H15" s="136"/>
-    </row>
-    <row r="16" spans="1:11" ht="66">
-      <c r="A16" s="132" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="160" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="185" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="168" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="188" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H16" s="136" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="26.4">
-      <c r="A17" s="132" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="190" t="s">
-        <v>313</v>
-      </c>
-      <c r="D17" s="173" t="s">
-        <v>314</v>
-      </c>
-      <c r="E17" s="168" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" s="188" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H17" s="136"/>
-    </row>
-    <row r="18" spans="1:8" ht="26.4">
-      <c r="A18" s="132" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="115" t="s">
-        <v>318</v>
-      </c>
-      <c r="C18" s="191" t="s">
-        <v>319</v>
-      </c>
-      <c r="D18" s="192" t="s">
-        <v>320</v>
-      </c>
-      <c r="E18" s="193" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="188" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H18" s="194"/>
-    </row>
-    <row r="19" spans="1:8" ht="26.4">
-      <c r="A19" s="132" t="s">
-        <v>317</v>
-      </c>
-      <c r="B19" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>343</v>
-      </c>
-      <c r="D19" s="192" t="s">
-        <v>344</v>
-      </c>
-      <c r="E19" s="193" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="199" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H19" s="194"/>
-    </row>
-    <row r="20" spans="1:8" ht="66">
-      <c r="A20" s="138" t="s">
-        <v>339</v>
-      </c>
-      <c r="B20" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="164" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="175" t="s">
-        <v>316</v>
-      </c>
-      <c r="E20" s="169"/>
-      <c r="F20" s="189" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="154">
-        <v>43024</v>
-      </c>
-      <c r="H20" s="141"/>
+      <c r="H20" s="139"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>
@@ -8568,8 +8591,8 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -8602,13 +8625,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -8620,13 +8643,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -8638,11 +8661,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -8661,10 +8684,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -8675,7 +8698,7 @@
     <row r="6" spans="1:11" s="42" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="62">
         <f>COUNTIF(F9:F968,"Pass")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="53">
         <f>COUNTIF(F9:F968,"Fail")</f>
@@ -8683,17 +8706,17 @@
       </c>
       <c r="C6" s="53">
         <f>E6-D6-B6-A6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="54">
         <f>COUNTIF(F$9:F$968,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A9:A968)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -8737,112 +8760,120 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="158.4">
-      <c r="A9" s="130" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="160" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" s="185" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="195" t="s">
+      <c r="A9" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="151">
+      <c r="B9" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="183" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="191" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="149">
         <v>43024</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="58"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="132" t="s">
+    <row r="10" spans="1:11" ht="92.4">
+      <c r="A10" s="130" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="166"/>
+      <c r="F10" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H10" s="134"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="105.6">
+      <c r="A11" s="130" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="158" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" s="166"/>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H11" s="134"/>
+    </row>
+    <row r="12" spans="1:11" ht="92.4">
+      <c r="A12" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="113" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="166"/>
+      <c r="F12" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H12" s="134"/>
+    </row>
+    <row r="13" spans="1:11" ht="105.6">
+      <c r="A13" s="136" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="186" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" s="186"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="153">
+      <c r="B13" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="192" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="193" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13" s="167"/>
+      <c r="F13" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="152">
         <v>43024</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="186"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H11" s="136"/>
-    </row>
-    <row r="12" spans="1:11" ht="92.4">
-      <c r="A12" s="132" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="115" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="185" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" s="168"/>
-      <c r="F12" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H12" s="136"/>
-    </row>
-    <row r="13" spans="1:11" ht="105.6">
-      <c r="A13" s="138" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="197" t="s">
-        <v>328</v>
-      </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="154">
-        <v>43024</v>
-      </c>
-      <c r="H13" s="141"/>
+      <c r="H13" s="139"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>
@@ -8874,8 +8905,8 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -8908,13 +8939,13 @@
       <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="44"/>
       <c r="H2" s="29"/>
       <c r="I2" s="41"/>
@@ -8926,13 +8957,13 @@
       <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="215" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="212" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="44"/>
       <c r="H3" s="29"/>
       <c r="I3" s="41"/>
@@ -8944,11 +8975,11 @@
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="41"/>
@@ -8967,10 +8998,10 @@
       <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="217"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
@@ -8981,7 +9012,7 @@
     <row r="6" spans="1:11" s="42" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="62">
         <f>COUNTIF(F9:F968,"Pass")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="53">
         <f>COUNTIF(F9:F968,"Fail")</f>
@@ -8989,17 +9020,17 @@
       </c>
       <c r="C6" s="53">
         <f>E6-D6-B6-A6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="54">
         <f>COUNTIF(F$9:F$968,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="211">
         <f>COUNTA(A9:A968)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="214"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
@@ -9043,112 +9074,120 @@
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="145.19999999999999">
-      <c r="A9" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="160" t="s">
-        <v>329</v>
-      </c>
-      <c r="D9" s="185" t="s">
-        <v>330</v>
-      </c>
-      <c r="E9" s="195" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="151">
+      <c r="A9" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="183" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="149">
         <v>43024</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="58"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="132" t="s">
+    <row r="10" spans="1:11" ht="92.4">
+      <c r="A10" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="166"/>
+      <c r="F10" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H10" s="134"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="105.6">
+      <c r="A11" s="130" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="158" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>389</v>
+      </c>
+      <c r="E11" s="166"/>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H11" s="134"/>
+    </row>
+    <row r="12" spans="1:11" ht="92.4">
+      <c r="A12" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>323</v>
+      </c>
+      <c r="E12" s="166"/>
+      <c r="F12" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="151">
+        <v>43024</v>
+      </c>
+      <c r="H12" s="134"/>
+    </row>
+    <row r="13" spans="1:11" ht="105.6">
+      <c r="A13" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="186" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" s="186"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="153">
+      <c r="B13" s="124" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="192" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="193" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="167"/>
+      <c r="F13" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="152">
         <v>43024</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="132" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="122" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="186"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H11" s="136"/>
-    </row>
-    <row r="12" spans="1:11" ht="92.4">
-      <c r="A12" s="132" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>332</v>
-      </c>
-      <c r="D12" s="185" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="168"/>
-      <c r="F12" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="153">
-        <v>43024</v>
-      </c>
-      <c r="H12" s="136"/>
-    </row>
-    <row r="13" spans="1:11" ht="105.6">
-      <c r="A13" s="138" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="126" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>334</v>
-      </c>
-      <c r="D13" s="197" t="s">
-        <v>335</v>
-      </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="154">
-        <v>43024</v>
-      </c>
-      <c r="H13" s="141"/>
+      <c r="H13" s="139"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>

--- a/Report/NS01_TestCase.xlsx
+++ b/Report/NS01_TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8196" tabRatio="821" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8196" tabRatio="821" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -717,9 +717,6 @@
     <t>Đăng nhập tab</t>
   </si>
   <si>
-    <t>message "Thanh cong" is shown when user login with an existing account</t>
-  </si>
-  <si>
     <t>user can only enter number in "số điện thoại" line</t>
   </si>
   <si>
@@ -1517,9 +1514,6 @@
     <t>1. Do [Module7-1]</t>
   </si>
   <si>
-    <t xml:space="preserve">- "Thanh cong" message is shown </t>
-  </si>
-  <si>
     <t>1. Start "Mito Ebook" app
 2. Tap on the fifth icon on the bottom navigation bar
 3. Swipe left to right from left edge of the screen</t>
@@ -1533,13 +1527,7 @@
     <t>[Module5-11]</t>
   </si>
   <si>
-    <t>message "Dang kí thanh cong" is shown when user successfully sign up a new account</t>
-  </si>
-  <si>
     <t>1. Do [Module6-1]</t>
-  </si>
-  <si>
-    <t>- "Dang ki thanh cong" message is shown</t>
   </si>
   <si>
     <t>1. Start "Mito Ebook" app
@@ -1602,13 +1590,6 @@
 6. Tap "Đăng nhập" button</t>
   </si>
   <si>
-    <t>- "Thư viện" tab is shown
-- "Cá nhân" tab is shown
-- "Đăng ký/Đăng nhập" tab is shown
-- "Đăng nhập" tab is shown 
-- "Thanh cong" message is shown at "Cá nhân" tab</t>
-  </si>
-  <si>
     <t>1. Start "Mito Ebook" app
 2. Tap on the fifth icon on the bottom navigation bar
 3. Tap on "Đăng ký/Đăng nhập" textline 
@@ -1655,9 +1636,6 @@
     <t>[Module5-12]</t>
   </si>
   <si>
-    <t>message "Luu thanh cong" is shown when user change account info successfully complete</t>
-  </si>
-  <si>
     <t>user can change account password</t>
   </si>
   <si>
@@ -1665,9 +1643,6 @@
   </si>
   <si>
     <t>1. Do [Module8-1]</t>
-  </si>
-  <si>
-    <t>- "Luu thanh cong" message is shown</t>
   </si>
   <si>
     <t>1. Start "Mito Ebook" app
@@ -1691,20 +1666,6 @@
     - mật khẩu mới: "hoquoctoan1996"
     - nhập lại mật khẩu mới: "hoquoctoan1996"
 6. Tap button "Lưu thay đổi"</t>
-  </si>
-  <si>
-    <t>- "Thư viện" tab is shown
-- "Cá nhân" tab is shown
-- "Thay đổi thông tin" tab is shown
-- Screen expand downward show 3 textbox: "mật khẩu cũ", "mật khẩu mới", "nhập lại mật khẩu mới"
-- "Luu thanh cong" message is shown at "Cá nhân" tab</t>
-  </si>
-  <si>
-    <t>- "Thư viện" tab is shown
-- "Cá nhân" tab is shown
-- "Thay đổi thông tin" tab is shown
-- Screen expand downward show 3 textbox: "mật khẩu cũ", "mật khẩu mới", "nhập lại mật khẩu mới"
-- "Luu thanh cong" message is shown at "Cá nhân" tab</t>
   </si>
   <si>
     <t>1. Start "Mito Ebook" app
@@ -1731,12 +1692,6 @@
 6. Tap button "Lưu thay đổi"</t>
   </si>
   <si>
-    <t>- "Thư viện" tab is shown
-- "Cá nhân" tab is shown
-- "Thay đổi thông tin" tab is shown
-- "Luu that bai Quay lai sau" message is shown</t>
-  </si>
-  <si>
     <t>"Luu that bai Quay lai sau" message is shown when there is no conection between server and app</t>
   </si>
   <si>
@@ -1975,6 +1930,51 @@
   </si>
   <si>
     <t>Test type: black box testing, ad hoc testing</t>
+  </si>
+  <si>
+    <t>message "Đăng nhập thành công" is shown when user login with an existing account</t>
+  </si>
+  <si>
+    <t>message "Đăng kí thành công" is shown when user successfully sign up a new account</t>
+  </si>
+  <si>
+    <t>message "Lưu thành công" is shown when user change account info successfully complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- "Đăng nhập thành công" message is shown </t>
+  </si>
+  <si>
+    <t>- "Đăng kí thành công" message is shown</t>
+  </si>
+  <si>
+    <t>- "Lưu thành công" message is shown</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Cá nhân" tab is shown
+- "Đăng ký/Đăng nhập" tab is shown
+- "Đăng nhập" tab is shown 
+- "Đăng nhập thành công" message is shown at "Cá nhân" tab</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Cá nhân" tab is shown
+- "Thay đổi thông tin" tab is shown
+- Screen expand downward show 3 textbox: "mật khẩu cũ", "mật khẩu mới", "nhập lại mật khẩu mới"
+- "Lưu thành công" message is shown at "Cá nhân" tab</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Cá nhân" tab is shown
+- "Thay đổi thông tin" tab is shown
+- Screen expand downward show 3 textbox: "mật khẩu cũ", "mật khẩu mới", "nhập lại mật khẩu mới"
+- "Lưu thành công" message is shown at "Cá nhân" tab</t>
+  </si>
+  <si>
+    <t>- "Thư viện" tab is shown
+- "Cá nhân" tab is shown
+- "Thay đổi thông tin" tab is shown
+- "Lưu thất bại Quay lại sau" message is shown</t>
   </si>
 </sst>
 </file>
@@ -3931,7 +3931,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4155,8 +4155,8 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4208,7 +4208,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -4325,19 +4325,19 @@
     </row>
     <row r="9" spans="1:11" ht="79.2">
       <c r="A9" s="128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="157" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E9" s="121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="174" t="s">
         <v>25</v>
@@ -4346,7 +4346,7 @@
         <v>43024</v>
       </c>
       <c r="H9" s="150" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I9" s="58"/>
       <c r="J9" s="42"/>
@@ -4354,19 +4354,19 @@
     </row>
     <row r="10" spans="1:11" ht="92.4">
       <c r="A10" s="130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="113" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="158" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="158" t="s">
-        <v>335</v>
-      </c>
       <c r="D10" s="183" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E10" s="182" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F10" s="132" t="s">
         <v>25</v>
@@ -4375,25 +4375,25 @@
         <v>43024</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="198">
       <c r="A11" s="130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="113" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D11" s="183" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="E11" s="182" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F11" s="114" t="s">
         <v>25</v>
@@ -4402,24 +4402,24 @@
         <v>43024</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="224.4">
       <c r="A12" s="130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="113" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>389</v>
+      </c>
+      <c r="E12" s="182" t="s">
         <v>332</v>
-      </c>
-      <c r="C12" s="158" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" s="183" t="s">
-        <v>339</v>
-      </c>
-      <c r="E12" s="182" t="s">
-        <v>341</v>
       </c>
       <c r="F12" s="114" t="s">
         <v>25</v>
@@ -4428,21 +4428,21 @@
         <v>43024</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="105.6">
       <c r="A13" s="136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13" s="110" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C13" s="192" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D13" s="193" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="E13" s="138"/>
       <c r="F13" s="138" t="s">
@@ -4483,8 +4483,8 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4536,7 +4536,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -4653,16 +4653,16 @@
     </row>
     <row r="9" spans="1:10" ht="52.8">
       <c r="A9" s="130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="182" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D9" s="170" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E9" s="114"/>
       <c r="F9" s="114" t="s">
@@ -4675,16 +4675,16 @@
     </row>
     <row r="10" spans="1:10" ht="52.8">
       <c r="A10" s="130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="182" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D10" s="183" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E10" s="114"/>
       <c r="F10" s="114" t="s">
@@ -4697,16 +4697,16 @@
     </row>
     <row r="11" spans="1:10" ht="52.8">
       <c r="A11" s="130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="182" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D11" s="183" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E11" s="114"/>
       <c r="F11" s="114" t="s">
@@ -4719,16 +4719,16 @@
     </row>
     <row r="12" spans="1:10" ht="52.8">
       <c r="A12" s="130" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="182" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D12" s="183" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E12" s="114"/>
       <c r="F12" s="114" t="s">
@@ -4741,16 +4741,16 @@
     </row>
     <row r="13" spans="1:10" ht="66">
       <c r="A13" s="130" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="182" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="158" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D13" s="183" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E13" s="114"/>
       <c r="F13" s="114" t="s">
@@ -4763,16 +4763,16 @@
     </row>
     <row r="14" spans="1:10" ht="52.8">
       <c r="A14" s="130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="182" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="158" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D14" s="183" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="114" t="s">
@@ -4785,16 +4785,16 @@
     </row>
     <row r="15" spans="1:10" ht="66">
       <c r="A15" s="130" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="182" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="158" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D15" s="183" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="114" t="s">
@@ -4807,16 +4807,16 @@
     </row>
     <row r="16" spans="1:10" ht="52.8">
       <c r="A16" s="130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="182" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D16" s="183" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="114" t="s">
@@ -4829,16 +4829,16 @@
     </row>
     <row r="17" spans="1:8" ht="66">
       <c r="A17" s="136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="196" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="192" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D17" s="193" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E17" s="138"/>
       <c r="F17" s="138" t="s">
@@ -4880,7 +4880,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4932,7 +4932,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -5049,16 +5049,16 @@
     </row>
     <row r="9" spans="1:11" ht="39.6">
       <c r="A9" s="128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="158" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D9" s="183" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E9" s="121"/>
       <c r="F9" s="174" t="s">
@@ -5074,16 +5074,16 @@
     </row>
     <row r="10" spans="1:11" ht="39.6">
       <c r="A10" s="130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" s="114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D10" s="183" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E10" s="114"/>
       <c r="F10" s="132" t="s">
@@ -5097,16 +5097,16 @@
     </row>
     <row r="11" spans="1:11" ht="39.6">
       <c r="A11" s="130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D11" s="183" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E11" s="114"/>
       <c r="F11" s="114" t="s">
@@ -5119,16 +5119,16 @@
     </row>
     <row r="12" spans="1:11" ht="52.8">
       <c r="A12" s="130" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D12" s="183" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E12" s="114"/>
       <c r="F12" s="114" t="s">
@@ -5141,16 +5141,16 @@
     </row>
     <row r="13" spans="1:11" ht="52.8">
       <c r="A13" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="192" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D13" s="193" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E13" s="138"/>
       <c r="F13" s="138" t="s">
@@ -5192,7 +5192,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5244,7 +5244,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -5361,16 +5361,16 @@
     </row>
     <row r="9" spans="1:10" ht="79.2">
       <c r="A9" s="128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="194" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C9" s="157" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E9" s="121"/>
       <c r="F9" s="197" t="s">
@@ -5384,16 +5384,16 @@
     </row>
     <row r="10" spans="1:10" ht="158.4">
       <c r="A10" s="136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="138" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C10" s="198" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D10" s="173" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E10" s="185"/>
       <c r="F10" s="138" t="s">
@@ -5487,7 +5487,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -5604,16 +5604,16 @@
     </row>
     <row r="9" spans="1:11" ht="39.6">
       <c r="A9" s="128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="157" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E9" s="191"/>
       <c r="F9" s="121" t="s">
@@ -5626,19 +5626,19 @@
     </row>
     <row r="10" spans="1:11" ht="26.4">
       <c r="A10" s="130" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="114" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D10" s="183" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E10" s="166" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F10" s="199" t="s">
         <v>25</v>
@@ -5653,16 +5653,16 @@
     </row>
     <row r="11" spans="1:11" ht="79.2">
       <c r="A11" s="136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D11" s="193" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E11" s="167"/>
       <c r="F11" s="200" t="s">
@@ -5704,7 +5704,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="F5" s="217"/>
       <c r="G5" s="218" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H5" s="219"/>
     </row>
@@ -5802,7 +5802,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="215" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D6" s="215"/>
       <c r="E6" s="215"/>
@@ -6445,7 +6445,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F9" s="117" t="s">
         <v>60</v>
@@ -6462,7 +6462,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="111" t="s">
         <v>60</v>
@@ -6479,7 +6479,7 @@
         <v>62</v>
       </c>
       <c r="E11" s="104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="111" t="s">
         <v>60</v>
@@ -6496,7 +6496,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="111" t="s">
         <v>60</v>
@@ -6513,7 +6513,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F13" s="111" t="s">
         <v>60</v>
@@ -6524,13 +6524,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="108" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="111" t="s">
         <v>60</v>
@@ -6547,10 +6547,10 @@
         <v>66</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -6558,13 +6558,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="108" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16" s="111" t="s">
         <v>80</v>
@@ -6575,13 +6575,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D17" s="108" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F17" s="111" t="s">
         <v>60</v>
@@ -6592,13 +6592,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="108" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="111"/>
     </row>
@@ -6607,16 +6607,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="108" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -6624,13 +6624,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="154" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="109" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="154" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F20" s="155" t="s">
         <v>60</v>
@@ -6668,7 +6668,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9:D9"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -6720,7 +6720,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -6837,16 +6837,16 @@
     </row>
     <row r="9" spans="1:10" s="60" customFormat="1" ht="39.6">
       <c r="A9" s="128" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="156" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E9" s="157"/>
       <c r="F9" s="164" t="s">
@@ -6860,16 +6860,16 @@
     </row>
     <row r="10" spans="1:10" ht="39.6">
       <c r="A10" s="130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="122" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="168" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="169" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E10" s="158"/>
       <c r="F10" s="165" t="s">
@@ -6883,16 +6883,16 @@
     </row>
     <row r="11" spans="1:10" ht="39.6">
       <c r="A11" s="130" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D11" s="160" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="131"/>
       <c r="F11" s="165" t="s">
@@ -6906,16 +6906,16 @@
     </row>
     <row r="12" spans="1:10" ht="39.6">
       <c r="A12" s="130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D12" s="160" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E12" s="131"/>
       <c r="F12" s="165" t="s">
@@ -6929,16 +6929,16 @@
     </row>
     <row r="13" spans="1:10" ht="26.4">
       <c r="A13" s="130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="122" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="161" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="160" t="s">
         <v>238</v>
-      </c>
-      <c r="D13" s="160" t="s">
-        <v>239</v>
       </c>
       <c r="E13" s="135"/>
       <c r="F13" s="166" t="s">
@@ -6951,16 +6951,16 @@
     </row>
     <row r="14" spans="1:10" ht="26.4">
       <c r="A14" s="130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="122" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" s="160" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E14" s="135"/>
       <c r="F14" s="166" t="s">
@@ -6973,16 +6973,16 @@
     </row>
     <row r="15" spans="1:10" ht="39.6">
       <c r="A15" s="130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="161" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15" s="160" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" s="135"/>
       <c r="F15" s="166" t="s">
@@ -6995,16 +6995,16 @@
     </row>
     <row r="16" spans="1:10" ht="39.6">
       <c r="A16" s="136" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="162" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D16" s="163" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E16" s="137"/>
       <c r="F16" s="167" t="s">
@@ -7047,7 +7047,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -7099,7 +7099,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -7216,16 +7216,16 @@
     </row>
     <row r="9" spans="1:11" ht="79.2">
       <c r="A9" s="128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="156" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E9" s="140"/>
       <c r="F9" s="174" t="s">
@@ -7241,16 +7241,16 @@
     </row>
     <row r="10" spans="1:11" ht="79.2">
       <c r="A10" s="130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="170" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10" s="135"/>
       <c r="F10" s="132" t="s">
@@ -7264,16 +7264,16 @@
     </row>
     <row r="11" spans="1:11" ht="79.2">
       <c r="A11" s="130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="172" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="170" t="s">
         <v>254</v>
-      </c>
-      <c r="D11" s="170" t="s">
-        <v>255</v>
       </c>
       <c r="E11" s="135"/>
       <c r="F11" s="114" t="s">
@@ -7286,16 +7286,16 @@
     </row>
     <row r="12" spans="1:11" ht="79.2">
       <c r="A12" s="130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="172" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="170" t="s">
         <v>256</v>
-      </c>
-      <c r="D12" s="170" t="s">
-        <v>257</v>
       </c>
       <c r="E12" s="135"/>
       <c r="F12" s="114" t="s">
@@ -7308,16 +7308,16 @@
     </row>
     <row r="13" spans="1:11" ht="79.2">
       <c r="A13" s="130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="172" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="170" t="s">
         <v>258</v>
-      </c>
-      <c r="D13" s="170" t="s">
-        <v>259</v>
       </c>
       <c r="E13" s="135"/>
       <c r="F13" s="114" t="s">
@@ -7330,16 +7330,16 @@
     </row>
     <row r="14" spans="1:11" ht="105.6">
       <c r="A14" s="130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="172" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="170" t="s">
         <v>260</v>
-      </c>
-      <c r="D14" s="170" t="s">
-        <v>261</v>
       </c>
       <c r="E14" s="135"/>
       <c r="F14" s="114" t="s">
@@ -7352,16 +7352,16 @@
     </row>
     <row r="15" spans="1:11" ht="79.2">
       <c r="A15" s="130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="122" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="172" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D15" s="170" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E15" s="135"/>
       <c r="F15" s="114" t="s">
@@ -7374,16 +7374,16 @@
     </row>
     <row r="16" spans="1:11" ht="66">
       <c r="A16" s="136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="162" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D16" s="173" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E16" s="137"/>
       <c r="F16" s="138" t="s">
@@ -7425,8 +7425,8 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -7478,7 +7478,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -7595,16 +7595,16 @@
     </row>
     <row r="9" spans="1:11" ht="79.2">
       <c r="A9" s="128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="181" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" s="121"/>
       <c r="F9" s="174" t="s">
@@ -7620,16 +7620,16 @@
     </row>
     <row r="10" spans="1:11" ht="79.2">
       <c r="A10" s="130" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="122" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="182" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" s="183" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E10" s="114"/>
       <c r="F10" s="132" t="s">
@@ -7643,16 +7643,16 @@
     </row>
     <row r="11" spans="1:11" ht="79.2">
       <c r="A11" s="130" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="182" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D11" s="183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E11" s="114"/>
       <c r="F11" s="114" t="s">
@@ -7665,16 +7665,16 @@
     </row>
     <row r="12" spans="1:11" ht="79.2">
       <c r="A12" s="130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="182" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="183" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E12" s="114"/>
       <c r="F12" s="114" t="s">
@@ -7687,16 +7687,16 @@
     </row>
     <row r="13" spans="1:11" ht="66">
       <c r="A13" s="130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D13" s="183" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E13" s="114"/>
       <c r="F13" s="114" t="s">
@@ -7709,16 +7709,16 @@
     </row>
     <row r="14" spans="1:11" ht="79.2">
       <c r="A14" s="130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="182" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" s="183" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="114" t="s">
@@ -7731,16 +7731,16 @@
     </row>
     <row r="15" spans="1:11" ht="66">
       <c r="A15" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="162" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D15" s="173" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E15" s="138"/>
       <c r="F15" s="138" t="s">
@@ -7781,8 +7781,8 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -7834,7 +7834,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -7951,16 +7951,16 @@
     </row>
     <row r="9" spans="1:11" ht="79.2">
       <c r="A9" s="128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="181" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9" s="183" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="121"/>
       <c r="F9" s="174" t="s">
@@ -7976,16 +7976,16 @@
     </row>
     <row r="10" spans="1:11" ht="79.2">
       <c r="A10" s="130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D10" s="183" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E10" s="114"/>
       <c r="F10" s="132" t="s">
@@ -7999,16 +7999,16 @@
     </row>
     <row r="11" spans="1:11" ht="79.2">
       <c r="A11" s="130" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D11" s="183" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="114"/>
       <c r="F11" s="114" t="s">
@@ -8021,16 +8021,16 @@
     </row>
     <row r="12" spans="1:11" ht="79.2">
       <c r="A12" s="130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D12" s="183" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E12" s="114"/>
       <c r="F12" s="114" t="s">
@@ -8043,16 +8043,16 @@
     </row>
     <row r="13" spans="1:11" ht="79.2">
       <c r="A13" s="130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C13" s="158" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D13" s="183" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E13" s="114"/>
       <c r="F13" s="114" t="s">
@@ -8065,16 +8065,16 @@
     </row>
     <row r="14" spans="1:11" ht="52.8">
       <c r="A14" s="136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="192" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D14" s="193" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E14" s="138"/>
       <c r="F14" s="138" t="s">
@@ -8115,8 +8115,8 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9:D9"/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -8124,7 +8124,7 @@
     <col min="1" max="1" width="13" style="8" customWidth="1"/>
     <col min="2" max="2" width="58.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.109375" style="8" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" style="35" bestFit="1" customWidth="1"/>
@@ -8168,7 +8168,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -8285,16 +8285,16 @@
     </row>
     <row r="9" spans="1:11" ht="79.2">
       <c r="A9" s="128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="158" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="183" t="s">
         <v>289</v>
-      </c>
-      <c r="D9" s="183" t="s">
-        <v>290</v>
       </c>
       <c r="E9" s="121"/>
       <c r="F9" s="174" t="s">
@@ -8310,16 +8310,16 @@
     </row>
     <row r="10" spans="1:11" ht="79.2">
       <c r="A10" s="130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="122" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="158" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="183" t="s">
         <v>291</v>
-      </c>
-      <c r="D10" s="183" t="s">
-        <v>292</v>
       </c>
       <c r="E10" s="114"/>
       <c r="F10" s="132" t="s">
@@ -8333,16 +8333,16 @@
     </row>
     <row r="11" spans="1:11" ht="79.2">
       <c r="A11" s="130" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="158" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="183" t="s">
         <v>293</v>
-      </c>
-      <c r="D11" s="183" t="s">
-        <v>294</v>
       </c>
       <c r="E11" s="114"/>
       <c r="F11" s="114" t="s">
@@ -8355,16 +8355,16 @@
     </row>
     <row r="12" spans="1:11" ht="79.2">
       <c r="A12" s="130" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="158" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="183" t="s">
         <v>295</v>
-      </c>
-      <c r="D12" s="183" t="s">
-        <v>296</v>
       </c>
       <c r="E12" s="114"/>
       <c r="F12" s="114" t="s">
@@ -8377,16 +8377,16 @@
     </row>
     <row r="13" spans="1:11" ht="66">
       <c r="A13" s="130" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="113" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="158" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="183" t="s">
         <v>297</v>
-      </c>
-      <c r="D13" s="183" t="s">
-        <v>298</v>
       </c>
       <c r="E13" s="114"/>
       <c r="F13" s="114" t="s">
@@ -8399,16 +8399,16 @@
     </row>
     <row r="14" spans="1:11" ht="66">
       <c r="A14" s="130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="158" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="183" t="s">
         <v>299</v>
-      </c>
-      <c r="D14" s="183" t="s">
-        <v>300</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="114" t="s">
@@ -8421,16 +8421,16 @@
     </row>
     <row r="15" spans="1:11" ht="52.8">
       <c r="A15" s="130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="113" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="158" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="183" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E15" s="166"/>
       <c r="F15" s="114" t="s">
@@ -8443,19 +8443,19 @@
     </row>
     <row r="16" spans="1:11" ht="66">
       <c r="A16" s="130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="158" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="183" t="s">
         <v>303</v>
       </c>
-      <c r="D16" s="183" t="s">
-        <v>304</v>
-      </c>
       <c r="E16" s="166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" s="184" t="s">
         <v>25</v>
@@ -8464,24 +8464,24 @@
         <v>43024</v>
       </c>
       <c r="H16" s="134" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="26.4">
       <c r="A17" s="130" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="113" t="s">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="C17" s="186" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D17" s="171" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="E17" s="166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="184" t="s">
         <v>25</v>
@@ -8493,19 +8493,19 @@
     </row>
     <row r="18" spans="1:8" ht="26.4">
       <c r="A18" s="130" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="113" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D18" s="188" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="E18" s="189" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="184" t="s">
         <v>25</v>
@@ -8517,19 +8517,19 @@
     </row>
     <row r="19" spans="1:8" ht="26.4">
       <c r="A19" s="130" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B19" s="113" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="C19" s="187" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D19" s="188" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="E19" s="189" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F19" s="195" t="s">
         <v>25</v>
@@ -8541,16 +8541,16 @@
     </row>
     <row r="20" spans="1:8" ht="66">
       <c r="A20" s="136" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B20" s="110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="162" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D20" s="173" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E20" s="167"/>
       <c r="F20" s="185" t="s">
@@ -8591,8 +8591,8 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:D11"/>
+      <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -8644,7 +8644,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -8761,19 +8761,19 @@
     </row>
     <row r="9" spans="1:11" ht="158.4">
       <c r="A9" s="128" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="158" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D9" s="183" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E9" s="191" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="174" t="s">
         <v>25</v>
@@ -8788,16 +8788,16 @@
     </row>
     <row r="10" spans="1:11" ht="92.4">
       <c r="A10" s="130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D10" s="183" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E10" s="166"/>
       <c r="F10" s="132" t="s">
@@ -8811,16 +8811,16 @@
     </row>
     <row r="11" spans="1:11" ht="105.6">
       <c r="A11" s="130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D11" s="183" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E11" s="166"/>
       <c r="F11" s="114" t="s">
@@ -8833,16 +8833,16 @@
     </row>
     <row r="12" spans="1:11" ht="92.4">
       <c r="A12" s="130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D12" s="183" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E12" s="166"/>
       <c r="F12" s="114" t="s">
@@ -8855,16 +8855,16 @@
     </row>
     <row r="13" spans="1:11" ht="105.6">
       <c r="A13" s="136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" s="110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="192" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D13" s="193" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E13" s="167"/>
       <c r="F13" s="138" t="s">
@@ -8905,8 +8905,8 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -8958,7 +8958,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -9073,21 +9073,21 @@
       </c>
       <c r="I8" s="57"/>
     </row>
-    <row r="9" spans="1:11" ht="145.19999999999999">
+    <row r="9" spans="1:11" ht="158.4">
       <c r="A9" s="128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="158" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D9" s="183" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="E9" s="191" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" s="174" t="s">
         <v>25</v>
@@ -9102,16 +9102,16 @@
     </row>
     <row r="10" spans="1:11" ht="92.4">
       <c r="A10" s="130" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D10" s="183" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E10" s="166"/>
       <c r="F10" s="132" t="s">
@@ -9125,16 +9125,16 @@
     </row>
     <row r="11" spans="1:11" ht="105.6">
       <c r="A11" s="130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D11" s="183" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E11" s="166"/>
       <c r="F11" s="114" t="s">
@@ -9147,16 +9147,16 @@
     </row>
     <row r="12" spans="1:11" ht="92.4">
       <c r="A12" s="130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D12" s="183" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E12" s="166"/>
       <c r="F12" s="114" t="s">
@@ -9169,16 +9169,16 @@
     </row>
     <row r="13" spans="1:11" ht="105.6">
       <c r="A13" s="136" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="192" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D13" s="193" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E13" s="167"/>
       <c r="F13" s="138" t="s">
